--- a/DSA/Copy of DSA by Shradha Didi.xlsx
+++ b/DSA/Copy of DSA by Shradha Didi.xlsx
@@ -2146,7 +2146,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2159,6 +2159,12 @@
       <sz val="20"/>
       <color rgb="FF434343"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -2350,46 +2356,46 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -2401,58 +2407,58 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="13" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="14" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="16" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="14" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="17" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="15" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="16" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="17" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="15" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="18" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2763,8 +2769,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="16" width="29.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="17" width="88.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="16" width="40.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="49.86214285714286" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="17" width="72.29071428571429" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="16" width="30.14785714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
